--- a/DATA/collate_cultivar_data_new_order/data/first_smoothed_kcp_trend.xlsx
+++ b/DATA/collate_cultivar_data_new_order/data/first_smoothed_kcp_trend.xlsx
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1093172</v>
+        <v>0.1082453</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1093896</v>
+        <v>0.1082495</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.1094644</v>
+        <v>0.1082571</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.1095414</v>
+        <v>0.1082679</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.1096206</v>
+        <v>0.108282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.1097017</v>
+        <v>0.1082993</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1097847</v>
+        <v>0.1083198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1098695</v>
+        <v>0.1083434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1099558</v>
+        <v>0.1083701</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1100435</v>
+        <v>0.1083999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.1101324</v>
+        <v>0.1084327</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1102222</v>
+        <v>0.1084684</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -543,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1103129</v>
+        <v>0.1085069</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1104041</v>
+        <v>0.1085481</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1104957</v>
+        <v>0.1085919</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1105874</v>
+        <v>0.1086382</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -587,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1106788</v>
+        <v>0.1086869</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -598,7 +598,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1107699</v>
+        <v>0.1087379</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -609,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1108602</v>
+        <v>0.108791</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1109495</v>
+        <v>0.1088461</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1110376</v>
+        <v>0.108903</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -642,7 +642,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1111241</v>
+        <v>0.1089616</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -653,7 +653,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1112087</v>
+        <v>0.1090218</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -664,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1112912</v>
+        <v>0.1090834</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1113712</v>
+        <v>0.1091462</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1114485</v>
+        <v>0.1092102</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1115228</v>
+        <v>0.1092752</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -708,7 +708,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1115937</v>
+        <v>0.1093411</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -719,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1116612</v>
+        <v>0.1094078</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -730,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1117249</v>
+        <v>0.1094752</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1117846</v>
+        <v>0.1095432</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1118402</v>
+        <v>0.1096119</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1118915</v>
+        <v>0.1096811</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -774,7 +774,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.1119383</v>
+        <v>0.1097508</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -785,7 +785,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1119806</v>
+        <v>0.1098212</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -796,7 +796,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.1120184</v>
+        <v>0.1098923</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -807,7 +807,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.1120516</v>
+        <v>0.1099642</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -818,7 +818,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.1120804</v>
+        <v>0.1100371</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -829,7 +829,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.1121048</v>
+        <v>0.1101111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -840,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.1121251</v>
+        <v>0.1101864</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -851,7 +851,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.1121414</v>
+        <v>0.1102635</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -862,7 +862,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.1121542</v>
+        <v>0.1103425</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -873,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.1121638</v>
+        <v>0.1104239</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -884,7 +884,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.1121706</v>
+        <v>0.1105081</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -895,7 +895,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.1121753</v>
+        <v>0.1105955</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -906,7 +906,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.1121783</v>
+        <v>0.1106866</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -917,7 +917,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.1121804</v>
+        <v>0.1107821</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -928,7 +928,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.1121822</v>
+        <v>0.1108825</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -939,7 +939,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.1121847</v>
+        <v>0.1109884</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -950,7 +950,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.1121887</v>
+        <v>0.1111005</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -961,7 +961,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.1121951</v>
+        <v>0.1112195</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -972,7 +972,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.1122049</v>
+        <v>0.1113461</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -983,7 +983,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.1122191</v>
+        <v>0.1114812</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -994,7 +994,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.1122389</v>
+        <v>0.1116253</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.1122654</v>
+        <v>0.1117794</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.1122997</v>
+        <v>0.1119443</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.1123431</v>
+        <v>0.1121207</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.1123966</v>
+        <v>0.1123095</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.1124617</v>
+        <v>0.1125115</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.1125394</v>
+        <v>0.1127276</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.1126311</v>
+        <v>0.1129584</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.1127379</v>
+        <v>0.1132048</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.1128611</v>
+        <v>0.1134677</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.113002</v>
+        <v>0.1137479</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.1131617</v>
+        <v>0.114046</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.1133415</v>
+        <v>0.1143629</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.1135424</v>
+        <v>0.1146994</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.1137658</v>
+        <v>0.1150563</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.1140126</v>
+        <v>0.1154342</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.1142842</v>
+        <v>0.115834</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.1145815</v>
+        <v>0.1162564</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.1149058</v>
+        <v>0.1167022</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.1152582</v>
+        <v>0.1171723</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.1156396</v>
+        <v>0.1176673</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.1160514</v>
+        <v>0.1181881</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.1164945</v>
+        <v>0.1187355</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.1169701</v>
+        <v>0.1193105</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.1174794</v>
+        <v>0.119914</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.1180235</v>
+        <v>0.1205468</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.1186037</v>
+        <v>0.12121</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.1192212</v>
+        <v>0.1219046</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.1198771</v>
+        <v>0.1226318</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.120573</v>
+        <v>0.1233927</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.1213101</v>
+        <v>0.1241886</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.1220898</v>
+        <v>0.1250207</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.1229136</v>
+        <v>0.1258906</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.1237832</v>
+        <v>0.1267996</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.1246999</v>
+        <v>0.1277494</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.1256657</v>
+        <v>0.1287416</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.1266822</v>
+        <v>0.1297782</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.1277512</v>
+        <v>0.1308609</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.1288746</v>
+        <v>0.1319919</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.1300545</v>
+        <v>0.1331732</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.131293</v>
+        <v>0.1344072</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.1325921</v>
+        <v>0.1356964</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.1339541</v>
+        <v>0.1370432</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.1353814</v>
+        <v>0.1384504</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.1368764</v>
+        <v>0.1399208</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.1384414</v>
+        <v>0.1414574</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.1400792</v>
+        <v>0.1430633</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.1417922</v>
+        <v>0.1447419</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.1435831</v>
+        <v>0.1464965</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.1454547</v>
+        <v>0.1483307</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>0.1474097</v>
+        <v>0.1502481</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.1494509</v>
+        <v>0.1522525</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>0.151581</v>
+        <v>0.1543478</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.1538029</v>
+        <v>0.1565379</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.1561193</v>
+        <v>0.1588269</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.158533</v>
+        <v>0.1612189</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.1610466</v>
+        <v>0.163718</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>0.1636628</v>
+        <v>0.1663281</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>0.1663839</v>
+        <v>0.1690534</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>0.1692123</v>
+        <v>0.1718978</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1654,7 +1654,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>0.1721502</v>
+        <v>0.174865</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>0.1751996</v>
+        <v>0.1779587</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>0.1783622</v>
+        <v>0.1811823</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>0.1816395</v>
+        <v>0.1845389</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>0.1850328</v>
+        <v>0.1880312</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>0.1885428</v>
+        <v>0.1916615</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>0.1921701</v>
+        <v>0.1954318</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>0.1959148</v>
+        <v>0.1993433</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>0.1997765</v>
+        <v>0.2033968</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>0.2037545</v>
+        <v>0.2075924</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>0.2078475</v>
+        <v>0.2119292</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>0.2120536</v>
+        <v>0.216406</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>0.2163705</v>
+        <v>0.2210204</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>0.2207953</v>
+        <v>0.2257693</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>0.2253244</v>
+        <v>0.2306484</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1819,7 +1819,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>0.2299538</v>
+        <v>0.235653</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>0.2346787</v>
+        <v>0.2407769</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>0.2394939</v>
+        <v>0.2460132</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>0.2443935</v>
+        <v>0.2513542</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>0.249371</v>
+        <v>0.2567912</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>0.2544193</v>
+        <v>0.2623144</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1885,7 +1885,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>0.2595311</v>
+        <v>0.2679137</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>0.2646983</v>
+        <v>0.2735779</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1907,7 +1907,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>0.2699125</v>
+        <v>0.2792954</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>0.2751648</v>
+        <v>0.285054</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>0.2804462</v>
+        <v>0.2908411</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>0.2857471</v>
+        <v>0.2966438</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>0.2910581</v>
+        <v>0.3024492</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>0.2963693</v>
+        <v>0.3082442</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>0.3016709</v>
+        <v>0.3140158</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>0.3069532</v>
+        <v>0.3197512</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>0.3122065</v>
+        <v>0.3254382</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>0.3174212</v>
+        <v>0.3310645</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2017,7 +2017,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>0.3225881</v>
+        <v>0.3366189</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>0.3276979</v>
+        <v>0.3420905</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>0.3327422</v>
+        <v>0.3474692</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>0.3377126</v>
+        <v>0.3527455</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>0.3426014</v>
+        <v>0.357911</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>0.3474011</v>
+        <v>0.3629578</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>0.3521052</v>
+        <v>0.367879</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>0.3567073</v>
+        <v>0.3726687</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>0.3612019</v>
+        <v>0.3773216</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>0.3655841</v>
+        <v>0.3818334</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2127,7 +2127,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>0.3698495</v>
+        <v>0.3862005</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>0.3739943</v>
+        <v>0.3904202</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>0.3780155</v>
+        <v>0.3944904</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>0.3819106</v>
+        <v>0.3984099</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>0.3856778</v>
+        <v>0.4021779</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>0.3893156</v>
+        <v>0.4057945</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>0.3928234</v>
+        <v>0.4092601</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>0.3962009</v>
+        <v>0.4125758</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>0.3994484</v>
+        <v>0.4157429</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>0.4025667</v>
+        <v>0.4187635</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>0.4055568</v>
+        <v>0.4216397</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2248,7 +2248,7 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>0.4084205</v>
+        <v>0.4243741</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>0.4111594</v>
+        <v>0.4269695</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>0.413776</v>
+        <v>0.4294291</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>0.4162727</v>
+        <v>0.4317562</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2292,7 +2292,7 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>0.4186523</v>
+        <v>0.4339542</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2303,7 +2303,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>0.4209177</v>
+        <v>0.4360267</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2314,7 +2314,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>0.4230721</v>
+        <v>0.4379776</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>0.4251188</v>
+        <v>0.4398104</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>0.4270613</v>
+        <v>0.4415293</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>0.428903</v>
+        <v>0.443138</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>0.4306476</v>
+        <v>0.4446405</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0.4322987</v>
+        <v>0.4460407</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>0.43386</v>
+        <v>0.4473426</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>0.435335</v>
+        <v>0.4485501</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>0.4367276</v>
+        <v>0.449667</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>0.4380412</v>
+        <v>0.4506971</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>0.4392796</v>
+        <v>0.4516441</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>0.4404461</v>
+        <v>0.4525118</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.4415444</v>
+        <v>0.4533036</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4425778</v>
+        <v>0.454023</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4435497</v>
+        <v>0.4546735</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.4444632</v>
+        <v>0.4552583</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.4453215</v>
+        <v>0.4557806</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4461278</v>
+        <v>0.4562434</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4468849</v>
+        <v>0.4566496</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.4475958</v>
+        <v>0.4570021</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4482632</v>
+        <v>0.4573036</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4488898</v>
+        <v>0.4575565</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.4494782</v>
+        <v>0.4577634</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.4500308</v>
+        <v>0.4579264</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4505501</v>
+        <v>0.4580478</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4510382</v>
+        <v>0.4581296</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.4514973</v>
+        <v>0.4581737</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4519295</v>
+        <v>0.4581819</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4523368</v>
+        <v>0.4581557</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4527209</v>
+        <v>0.4580967</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4530837</v>
+        <v>0.4580063</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4534267</v>
+        <v>0.4578856</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4537515</v>
+        <v>0.4577359</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4540594</v>
+        <v>0.4575581</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4543519</v>
+        <v>0.457353</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.45463</v>
+        <v>0.4571214</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4548949</v>
+        <v>0.4568641</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4551475</v>
+        <v>0.4565813</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.4553887</v>
+        <v>0.4562737</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4556192</v>
+        <v>0.4559414</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4558397</v>
+        <v>0.4555848</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4560505</v>
+        <v>0.4552038</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4562522</v>
+        <v>0.4547986</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4564449</v>
+        <v>0.4543689</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4566287</v>
+        <v>0.4539148</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4568037</v>
+        <v>0.4534359</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4569697</v>
+        <v>0.4529319</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4571265</v>
+        <v>0.4524025</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4572737</v>
+        <v>0.4518473</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4574107</v>
+        <v>0.4512657</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.457537</v>
+        <v>0.4506574</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4576518</v>
+        <v>0.4500216</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.4577543</v>
+        <v>0.449358</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4578434</v>
+        <v>0.4486659</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.457918</v>
+        <v>0.4479446</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4579769</v>
+        <v>0.4471938</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4580188</v>
+        <v>0.4464127</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4580422</v>
+        <v>0.4456008</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4580458</v>
+        <v>0.4447576</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4580277</v>
+        <v>0.4438826</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4579864</v>
+        <v>0.4429754</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.4579201</v>
+        <v>0.4420356</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4578269</v>
+        <v>0.4410628</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4577049</v>
+        <v>0.4400568</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.4575523</v>
+        <v>0.4390174</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.457367</v>
+        <v>0.4379445</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.457147</v>
+        <v>0.4368379</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4568902</v>
+        <v>0.4356978</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4565946</v>
+        <v>0.4345242</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4562582</v>
+        <v>0.4333173</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4558788</v>
+        <v>0.4320774</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4554544</v>
+        <v>0.4308048</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.454983</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4544625</v>
+        <v>0.4281633</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.453891</v>
+        <v>0.4267954</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4532664</v>
+        <v>0.4253969</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4525869</v>
+        <v>0.4239685</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4518506</v>
+        <v>0.4225107</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4510556</v>
+        <v>0.4210245</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4502002</v>
+        <v>0.4195105</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4492828</v>
+        <v>0.4179695</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4483015</v>
+        <v>0.4164024</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4472549</v>
+        <v>0.41481</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.4461413</v>
+        <v>0.413193</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4449593</v>
+        <v>0.4115522</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4437074</v>
+        <v>0.4098883</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4423843</v>
+        <v>0.4082021</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4409886</v>
+        <v>0.4064941</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4395192</v>
+        <v>0.4047651</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4379747</v>
+        <v>0.4030155</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.436354</v>
+        <v>0.4012457</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.4346561</v>
+        <v>0.3994562</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.4328798</v>
+        <v>0.3976473</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.4310242</v>
+        <v>0.395819</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.4290882</v>
+        <v>0.3939715</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.4270711</v>
+        <v>0.3921049</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.4249719</v>
+        <v>0.3902189</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.4227898</v>
+        <v>0.3883134</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.4205241</v>
+        <v>0.3863879</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.418174</v>
+        <v>0.3844421</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.4157388</v>
+        <v>0.3824754</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.4132181</v>
+        <v>0.380487</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.4106111</v>
+        <v>0.3784762</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.4079175</v>
+        <v>0.3764421</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.4051368</v>
+        <v>0.3743836</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.4022686</v>
+        <v>0.3722997</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3993126</v>
+        <v>0.3701891</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3962687</v>
+        <v>0.3680505</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3931366</v>
+        <v>0.3658825</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3899162</v>
+        <v>0.3636835</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3866077</v>
+        <v>0.3614521</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3832111</v>
+        <v>0.3591866</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.3797266</v>
+        <v>0.3568852</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3761545</v>
+        <v>0.3545461</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3724951</v>
+        <v>0.3521677</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3687491</v>
+        <v>0.3497479</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3649171</v>
+        <v>0.347285</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3609997</v>
+        <v>0.344777</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3569978</v>
+        <v>0.3422219</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3529125</v>
+        <v>0.3396179</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3487448</v>
+        <v>0.336963</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3444962</v>
+        <v>0.3342553</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.340168</v>
+        <v>0.331493</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.3357618</v>
+        <v>0.3286742</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3312795</v>
+        <v>0.3257972</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3267231</v>
+        <v>0.3228603</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3220947</v>
+        <v>0.3198619</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3173969</v>
+        <v>0.3168004</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3126322</v>
+        <v>0.3136746</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.3078037</v>
+        <v>0.3104831</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3029145</v>
+        <v>0.3072249</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.2979681</v>
+        <v>0.3038991</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.2929683</v>
+        <v>0.300505</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2879194</v>
+        <v>0.2970422</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2828257</v>
+        <v>0.2935104</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2776922</v>
+        <v>0.2899098</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.272524</v>
+        <v>0.2862408</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2673268</v>
+        <v>0.2825039</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2621064</v>
+        <v>0.2787004</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.2568692</v>
+        <v>0.2748317</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.251622</v>
+        <v>0.2708997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2463716</v>
+        <v>0.2669068</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2411255</v>
+        <v>0.2628557</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2358913</v>
+        <v>0.2587497</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2306768</v>
+        <v>0.2545926</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2254902</v>
+        <v>0.2503887</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2203396</v>
+        <v>0.2461429</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2152333</v>
+        <v>0.2418605</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2101797</v>
+        <v>0.2375473</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2051871</v>
+        <v>0.2332097</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2002635</v>
+        <v>0.2288546</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.1954169</v>
+        <v>0.2244891</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.1906549</v>
+        <v>0.220121</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.185985</v>
+        <v>0.2157583</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.181414</v>
+        <v>0.2114092</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.1769483</v>
+        <v>0.2070823</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.1725939</v>
+        <v>0.2027862</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.1683561</v>
+        <v>0.1985296</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1642397</v>
+        <v>0.1943212</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1602486</v>
+        <v>0.1901695</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1563864</v>
+        <v>0.1860829</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1526557</v>
+        <v>0.1820695</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.1490586</v>
+        <v>0.1781369</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1455965</v>
+        <v>0.1742924</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1422702</v>
+        <v>0.1705426</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1390798</v>
+        <v>0.1668938</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1360248</v>
+        <v>0.1633512</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1331042</v>
+        <v>0.1599198</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1303165</v>
+        <v>0.1566036</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1276596</v>
+        <v>0.1534059</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1251313</v>
+        <v>0.1503293</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1227286</v>
+        <v>0.1473757</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1204485</v>
+        <v>0.1445462</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.1182875</v>
+        <v>0.1418413</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1162422</v>
+        <v>0.1392607</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1143086</v>
+        <v>0.1368037</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1124828</v>
+        <v>0.1344689</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1107608</v>
+        <v>0.1322543</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1091385</v>
+        <v>0.1301576</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1076117</v>
+        <v>0.1281759</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4294,7 +4294,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1061762</v>
+        <v>0.1263062</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4305,7 +4305,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.104828</v>
+        <v>0.124545</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1035628</v>
+        <v>0.1228886</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4327,7 +4327,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1023768</v>
+        <v>0.1213331</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4338,7 +4338,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1012658</v>
+        <v>0.1198746</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.1002261</v>
+        <v>0.1185089</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.099254</v>
+        <v>0.1172318</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4371,7 +4371,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.09834569999999999</v>
+        <v>0.1160391</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4382,7 +4382,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.09749770000000001</v>
+        <v>0.1149266</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4393,7 +4393,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.09670670000000001</v>
+        <v>0.1138902</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4404,7 +4404,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.0959694</v>
+        <v>0.1129257</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4415,7 +4415,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.0952827</v>
+        <v>0.1120292</v>
       </c>
     </row>
   </sheetData>
